--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_301__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_301__Reeval_Halton_Modell_1.2.xlsx
@@ -5990,7 +5990,7 @@
                   <c:v>95.65201568603516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.719368100166321</c:v>
+                  <c:v>-1.719373941421509</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.43957138061523</c:v>
@@ -5999,28 +5999,28 @@
                   <c:v>-0.3237031698226929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.32699584960938</c:v>
+                  <c:v>98.32698822021484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.55838012695312</c:v>
+                  <c:v>95.55839538574219</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>95.31647491455078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.513002514839172</c:v>
+                  <c:v>-1.513014197349548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.07801818847656</c:v>
+                  <c:v>25.07802963256836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.60784149169922</c:v>
+                  <c:v>94.60784912109375</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>95.95876312255859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.29261016845703</c:v>
+                  <c:v>35.29261779785156</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.24950408935547</c:v>
@@ -6032,28 +6032,28 @@
                   <c:v>0.7818804383277893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.2930601239204407</c:v>
+                  <c:v>-0.2930484116077423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.29278564453125</c:v>
+                  <c:v>90.29277801513672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.467034339904785</c:v>
+                  <c:v>-1.467040181159973</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.38102340698242</c:v>
+                  <c:v>33.38100814819336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.360319137573242</c:v>
+                  <c:v>4.360325336456299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.087158203125</c:v>
+                  <c:v>79.08715057373047</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.918125152587891</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.92581176757812</c:v>
+                  <c:v>94.92581939697266</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>38.69776153564453</c:v>
@@ -6062,19 +6062,19 @@
                   <c:v>-1.760346651077271</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59.75594329833984</c:v>
+                  <c:v>59.75593185424805</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>66.71788787841797</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.993770718574524</c:v>
+                  <c:v>-1.993788361549377</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>94.89450836181641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96.14326477050781</c:v>
+                  <c:v>96.14325714111328</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>63.54117584228516</c:v>
@@ -6083,19 +6083,19 @@
                   <c:v>10.08275890350342</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.9802805185317993</c:v>
+                  <c:v>-0.9802864193916321</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.094420790672302</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>91.11051940917969</c:v>
+                  <c:v>91.11052703857422</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.5064539909362793</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83.75400543212891</c:v>
+                  <c:v>83.75399780273438</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>19.44503211975098</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>97.04927825927734</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.71132946014404</c:v>
+                  <c:v>10.71133518218994</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>86.0045166015625</c:v>
@@ -6116,10 +6116,10 @@
                   <c:v>88.31047058105469</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.36431121826172</c:v>
+                  <c:v>46.36430358886719</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.11647033691406</c:v>
+                  <c:v>77.11648559570312</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.41390228271484</c:v>
@@ -6128,91 +6128,91 @@
                   <c:v>88.364990234375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.07099914550781</c:v>
+                  <c:v>12.07100486755371</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88.82785034179688</c:v>
+                  <c:v>88.82785797119141</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>97.57940673828125</c:v>
+                  <c:v>97.57941436767578</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69.79690551757812</c:v>
+                  <c:v>69.79689788818359</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.4540104568004608</c:v>
+                  <c:v>-0.4540163278579712</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.27633285522461</c:v>
+                  <c:v>38.27633666992188</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.410319805145264</c:v>
+                  <c:v>-1.410313963890076</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>96.54132843017578</c:v>
+                  <c:v>96.54133605957031</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>71.67340087890625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>55.78510284423828</c:v>
+                  <c:v>55.78509521484375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.894835233688354</c:v>
+                  <c:v>3.894840955734253</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96.51649475097656</c:v>
+                  <c:v>96.51650238037109</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.553230047225952</c:v>
+                  <c:v>-2.553235769271851</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>87.45741271972656</c:v>
+                  <c:v>87.45740509033203</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4231034219264984</c:v>
+                  <c:v>0.4231092929840088</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>88.36068725585938</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>95.09609985351562</c:v>
+                  <c:v>95.09610748291016</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>74.52629852294922</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.404287576675415</c:v>
+                  <c:v>0.4042817056179047</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>94.92984008789062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>82.27138519287109</c:v>
+                  <c:v>82.27140045166016</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.5435693860054016</c:v>
+                  <c:v>-0.5435576438903809</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.065022706985474</c:v>
+                  <c:v>-2.065016984939575</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>95.64279174804688</c:v>
+                  <c:v>95.64277648925781</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>95.35935211181641</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.75443267822266</c:v>
+                  <c:v>96.75444030761719</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>96.40549468994141</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.172263979911804</c:v>
+                  <c:v>-1.172269940376282</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>85.01377868652344</c:v>
+                  <c:v>85.01377105712891</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>90.48679351806641</c:v>
@@ -6221,7 +6221,7 @@
                   <c:v>94.45536804199219</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>67.44563293457031</c:v>
+                  <c:v>67.44564056396484</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-1.201384663581848</c:v>
@@ -6230,19 +6230,19 @@
                   <c:v>96.74732208251953</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.07750701904297</c:v>
+                  <c:v>97.07752227783203</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1958129405975342</c:v>
+                  <c:v>-0.1958070695400238</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>85.52864837646484</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>47.86872482299805</c:v>
+                  <c:v>47.86873245239258</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>97.27631378173828</c:v>
+                  <c:v>97.27630615234375</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.4184702336788177</c:v>
@@ -6251,19 +6251,19 @@
                   <c:v>-0.2595072388648987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>96.25879669189453</c:v>
+                  <c:v>96.25880432128906</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.05170440673828</c:v>
+                  <c:v>87.05169677734375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.5176006555557251</c:v>
+                  <c:v>-0.5175947546958923</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>66.75200653076172</c:v>
+                  <c:v>66.75201416015625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>96.09964752197266</c:v>
+                  <c:v>96.09965515136719</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.0138233145698905</c:v>
@@ -6272,19 +6272,19 @@
                   <c:v>94.38226318359375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.4389786124229431</c:v>
+                  <c:v>0.4389844834804535</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>96.84184265136719</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.204649209976196</c:v>
+                  <c:v>-2.204661130905151</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>72.71525573730469</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.722900390625</c:v>
+                  <c:v>98.72291564941406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.719368100166321</v>
+        <v>-1.719373941421509</v>
       </c>
       <c r="G3">
         <v>118</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>98.32699584960938</v>
+        <v>98.32698822021484</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>95.55838012695312</v>
+        <v>95.55839538574219</v>
       </c>
       <c r="G7">
         <v>118</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.513002514839172</v>
+        <v>-1.513014197349548</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.07801818847656</v>
+        <v>25.07802963256836</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>94.60784149169922</v>
+        <v>94.60784912109375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.29261016845703</v>
+        <v>35.29261779785156</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.2930601239204407</v>
+        <v>-0.2930484116077423</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>90.29278564453125</v>
+        <v>90.29277801513672</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-1.467034339904785</v>
+        <v>-1.467040181159973</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>33.38102340698242</v>
+        <v>33.38100814819336</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.360319137573242</v>
+        <v>4.360325336456299</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>79.087158203125</v>
+        <v>79.08715057373047</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>94.92581176757812</v>
+        <v>94.92581939697266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>59.75594329833984</v>
+        <v>59.75593185424805</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1.993770718574524</v>
+        <v>-1.993788361549377</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>96.14326477050781</v>
+        <v>96.14325714111328</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.9802805185317993</v>
+        <v>-0.9802864193916321</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>91.11051940917969</v>
+        <v>91.11052703857422</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>83.75400543212891</v>
+        <v>83.75399780273438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>10.71132946014404</v>
+        <v>10.71133518218994</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>46.36431121826172</v>
+        <v>46.36430358886719</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>77.11647033691406</v>
+        <v>77.11648559570312</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>12.07099914550781</v>
+        <v>12.07100486755371</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>88.82785034179688</v>
+        <v>88.82785797119141</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>97.57940673828125</v>
+        <v>97.57941436767578</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>69.79690551757812</v>
+        <v>69.79689788818359</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.4540104568004608</v>
+        <v>-0.4540163278579712</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>38.27633285522461</v>
+        <v>38.27633666992188</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1.410319805145264</v>
+        <v>-1.410313963890076</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>96.54132843017578</v>
+        <v>96.54133605957031</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>55.78510284423828</v>
+        <v>55.78509521484375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>3.894835233688354</v>
+        <v>3.894840955734253</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>96.51649475097656</v>
+        <v>96.51650238037109</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-2.553230047225952</v>
+        <v>-2.553235769271851</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>87.45741271972656</v>
+        <v>87.45740509033203</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.4231034219264984</v>
+        <v>0.4231092929840088</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>95.09609985351562</v>
+        <v>95.09610748291016</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.404287576675415</v>
+        <v>0.4042817056179047</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>82.27138519287109</v>
+        <v>82.27140045166016</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.5435693860054016</v>
+        <v>-0.5435576438903809</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-2.065022706985474</v>
+        <v>-2.065016984939575</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>95.64279174804688</v>
+        <v>95.64277648925781</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>96.75443267822266</v>
+        <v>96.75444030761719</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-1.172263979911804</v>
+        <v>-1.172269940376282</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>85.01377868652344</v>
+        <v>85.01377105712891</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>67.44563293457031</v>
+        <v>67.44564056396484</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>97.07750701904297</v>
+        <v>97.07752227783203</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.1958129405975342</v>
+        <v>-0.1958070695400238</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>47.86872482299805</v>
+        <v>47.86873245239258</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>97.27631378173828</v>
+        <v>97.27630615234375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>96.25879669189453</v>
+        <v>96.25880432128906</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>87.05170440673828</v>
+        <v>87.05169677734375</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.5176006555557251</v>
+        <v>-0.5175947546958923</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>66.75200653076172</v>
+        <v>66.75201416015625</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>96.09964752197266</v>
+        <v>96.09965515136719</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.4389786124229431</v>
+        <v>0.4389844834804535</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>-2.204649209976196</v>
+        <v>-2.204661130905151</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>98.722900390625</v>
+        <v>98.72291564941406</v>
       </c>
     </row>
     <row r="102" spans="1:6">
